--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukasz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\IdeaProjects\Hattrick_Scrapper\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Kulesza</t>
+  </si>
+  <si>
+    <t>Majgier</t>
   </si>
 </sst>
 </file>
@@ -387,8 +390,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,9 +407,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -444,7 +447,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -516,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -666,21 +669,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -2560,6 +2563,38 @@
       </c>
       <c r="P34">
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>160</v>
+      </c>
+      <c r="J35">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Majgier</t>
+  </si>
+  <si>
+    <t>Tarabasz</t>
   </si>
 </sst>
 </file>
@@ -669,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2595,6 +2598,74 @@
       </c>
       <c r="J35">
         <v>1080</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
+        <v>3.5</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>630</v>
+      </c>
+      <c r="J36">
+        <v>2280</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Tarabasz</t>
+  </si>
+  <si>
+    <t>Zyszkiewicz</t>
   </si>
 </sst>
 </file>
@@ -672,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2668,8 +2671,70 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>790</v>
+      </c>
+      <c r="J37">
+        <v>2040</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>5.5</v>
+      </c>
+      <c r="O37">
+        <v>3.5</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2681,7 +2746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2693,7 +2758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2705,7 +2770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2717,7 +2782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2729,7 +2794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2741,7 +2806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2753,7 +2818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2765,7 +2830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2777,7 +2842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2789,7 +2854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2801,7 +2866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2813,7 +2878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2825,7 +2890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2837,7 +2902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2849,7 +2914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2861,7 +2926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2873,7 +2938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2885,7 +2950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2897,7 +2962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2909,7 +2974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2921,7 +2986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\IdeaProjects\Hattrick_Scrapper\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukasz\IdeaProjects\Scrapper\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Zyszkiewicz</t>
+  </si>
+  <si>
+    <t>Sobieranski</t>
   </si>
 </sst>
 </file>
@@ -396,8 +399,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,9 +416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -453,7 +456,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -525,7 +528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -675,21 +678,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -2719,6 +2722,56 @@
       </c>
       <c r="P37">
         <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>1020</v>
+      </c>
+      <c r="J38">
+        <v>1160</v>
+      </c>
+      <c r="K38">
+        <v>1.5</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>4.5</v>
+      </c>
+      <c r="O38">
+        <v>5.5</v>
+      </c>
+      <c r="P38">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukasz\IdeaProjects\Scrapper\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\IdeaProjects\Hattrick_Scrapper\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Sobieranski</t>
+  </si>
+  <si>
+    <t>Maranda</t>
   </si>
 </sst>
 </file>
@@ -399,8 +402,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,9 +419,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +459,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -528,7 +531,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -678,21 +681,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -2774,8 +2777,70 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+      <c r="J39">
+        <v>1000</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1.5</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2787,7 +2852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2799,7 +2864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2811,7 +2876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2823,7 +2888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2835,7 +2900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2847,7 +2912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2859,7 +2924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2871,7 +2936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2883,7 +2948,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2895,7 +2960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2907,7 +2972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2919,7 +2984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2931,7 +2996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2943,7 +3008,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2955,7 +3020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2967,7 +3032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2979,7 +3044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2991,7 +3056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3003,7 +3068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3015,7 +3080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3027,7 +3092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3039,7 +3104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -128,177 +128,21 @@
     <t>Wisz</t>
   </si>
   <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>bd2_s1.png</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>f2a.png</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>e20c.png</t>
-  </si>
-  <si>
-    <t>mouth</t>
-  </si>
-  <si>
-    <t>m32c.png</t>
-  </si>
-  <si>
-    <t>g2.png</t>
-  </si>
-  <si>
-    <t>goatee</t>
-  </si>
-  <si>
-    <t>nose</t>
-  </si>
-  <si>
-    <t>n7.png</t>
-  </si>
-  <si>
-    <t>hair</t>
-  </si>
-  <si>
-    <t>f2h5d.png</t>
-  </si>
-  <si>
-    <t>sympatyczny</t>
-  </si>
-  <si>
-    <t>opanowany</t>
-  </si>
-  <si>
-    <t>uczciwy</t>
-  </si>
-  <si>
     <t>Zbierański</t>
   </si>
   <si>
-    <t>bd3_s1.png</t>
-  </si>
-  <si>
-    <t>f8a.png</t>
-  </si>
-  <si>
-    <t>e24b.png</t>
-  </si>
-  <si>
-    <t>m34b.png</t>
-  </si>
-  <si>
-    <t>n29.png</t>
-  </si>
-  <si>
-    <t>f8h8a.png</t>
-  </si>
-  <si>
     <t>Danik</t>
   </si>
   <si>
-    <t>bd6</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>e12c</t>
-  </si>
-  <si>
-    <t>m35c</t>
-  </si>
-  <si>
-    <t>n13</t>
-  </si>
-  <si>
-    <t>h5</t>
-  </si>
-  <si>
-    <t>spokojny</t>
-  </si>
-  <si>
-    <t>podły</t>
-  </si>
-  <si>
-    <t>bd1</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>e26c</t>
-  </si>
-  <si>
-    <t>m29c</t>
-  </si>
-  <si>
-    <t>n1</t>
-  </si>
-  <si>
-    <t>h0</t>
-  </si>
-  <si>
     <t>Bochenski</t>
   </si>
   <si>
-    <t>popularny</t>
-  </si>
-  <si>
-    <t>zrownowazony</t>
-  </si>
-  <si>
-    <t>prawy</t>
-  </si>
-  <si>
     <t>Malmur</t>
   </si>
   <si>
-    <t>bd8</t>
-  </si>
-  <si>
-    <t>e36c</t>
-  </si>
-  <si>
-    <t>m3c</t>
-  </si>
-  <si>
-    <t>n19</t>
-  </si>
-  <si>
-    <t>h14</t>
-  </si>
-  <si>
     <t>Szymas</t>
   </si>
   <si>
-    <t>bd7</t>
-  </si>
-  <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>e29c</t>
-  </si>
-  <si>
-    <t>m9c</t>
-  </si>
-  <si>
-    <t>przyjemny</t>
-  </si>
-  <si>
-    <t>z charakterem</t>
-  </si>
-  <si>
-    <t>nieuczciwy</t>
-  </si>
-  <si>
     <t>Pakulski</t>
   </si>
   <si>
@@ -342,6 +186,12 @@
   </si>
   <si>
     <t>Maranda</t>
+  </si>
+  <si>
+    <t>Obracaj</t>
+  </si>
+  <si>
+    <t>Swojski</t>
   </si>
 </sst>
 </file>
@@ -681,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -698,7 +548,7 @@
     <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,29 +597,8 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -819,7 +648,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -869,7 +698,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -919,7 +748,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -969,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +848,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1069,7 +898,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1119,7 +948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1169,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1219,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1269,7 +1098,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1369,7 +1198,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1419,7 +1248,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1469,7 +1298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1519,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1569,7 +1398,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1619,7 +1448,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1668,40 +1497,17 @@
       <c r="P19">
         <v>4.5</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1748,29 +1554,17 @@
       <c r="P20">
         <v>6.5</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1817,37 +1611,10 @@
       <c r="P21">
         <v>5</v>
       </c>
-      <c r="Q21" t="s">
-        <v>59</v>
-      </c>
-      <c r="R21" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" t="s">
-        <v>61</v>
-      </c>
-      <c r="T21" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21" t="s">
-        <v>63</v>
-      </c>
-      <c r="W21" t="s">
-        <v>64</v>
-      </c>
-      <c r="X21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1894,37 +1661,10 @@
       <c r="P22">
         <v>4.5</v>
       </c>
-      <c r="Q22" t="s">
-        <v>67</v>
-      </c>
-      <c r="R22" t="s">
-        <v>68</v>
-      </c>
-      <c r="S22" t="s">
-        <v>69</v>
-      </c>
-      <c r="T22" t="s">
-        <v>70</v>
-      </c>
-      <c r="V22" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22" t="s">
-        <v>72</v>
-      </c>
-      <c r="X22" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1971,37 +1711,10 @@
       <c r="P23">
         <v>5.5</v>
       </c>
-      <c r="Q23" t="s">
-        <v>78</v>
-      </c>
-      <c r="R23" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23" t="s">
-        <v>79</v>
-      </c>
-      <c r="T23" t="s">
-        <v>80</v>
-      </c>
-      <c r="V23" t="s">
-        <v>81</v>
-      </c>
-      <c r="W23" t="s">
-        <v>82</v>
-      </c>
-      <c r="X23" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2048,37 +1761,10 @@
       <c r="P24">
         <v>6.5</v>
       </c>
-      <c r="Q24" t="s">
-        <v>84</v>
-      </c>
-      <c r="R24" t="s">
-        <v>85</v>
-      </c>
-      <c r="S24" t="s">
-        <v>86</v>
-      </c>
-      <c r="T24" t="s">
-        <v>87</v>
-      </c>
-      <c r="V24" t="s">
-        <v>81</v>
-      </c>
-      <c r="W24" t="s">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2126,9 +1812,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2177,9 +1863,9 @@
       </c>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2227,9 +1913,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2277,9 +1963,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2327,9 +2013,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2377,9 +2063,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2427,9 +2113,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2479,7 +2165,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2529,7 +2215,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2579,7 +2265,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2629,7 +2315,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -2679,7 +2365,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2729,7 +2415,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2779,7 +2465,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2827,8 +2513,132 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>300</v>
+      </c>
+      <c r="J40">
+        <v>1080</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>4.5</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>4.5</v>
+      </c>
+      <c r="O40">
+        <v>4.5</v>
+      </c>
+      <c r="P40">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>170</v>
+      </c>
+      <c r="J41">
+        <v>1000</v>
+      </c>
+      <c r="K41">
+        <v>1.5</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>2.5</v>
+      </c>
+      <c r="O41">
+        <v>3.5</v>
+      </c>
+      <c r="P41">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2840,7 +2650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2852,7 +2662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2864,7 +2674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2876,7 +2686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2888,7 +2698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2900,7 +2710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2912,7 +2722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2924,7 +2734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2936,7 +2746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2948,7 +2758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2960,7 +2770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2972,7 +2782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2984,7 +2794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2996,7 +2806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3008,7 +2818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3020,7 +2830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3032,7 +2842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3044,7 +2854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3056,7 +2866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3068,7 +2878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3080,7 +2890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3092,7 +2902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3104,7 +2914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3116,22 +2926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="Q19" r:id="rId1" display="https://www82.hattrick.org/Img/Avatar/bodies/bd2_s1.png"/>
-    <hyperlink ref="R19" r:id="rId2" display="https://www82.hattrick.org/Img/Avatar/faces/f2a.png"/>
-    <hyperlink ref="S19" r:id="rId3" display="https://www82.hattrick.org/Img/Avatar/eyes/e20c.png"/>
-    <hyperlink ref="T19" r:id="rId4" display="https://www82.hattrick.org/Img/Avatar/mouths/m32c.png"/>
-    <hyperlink ref="U19" r:id="rId5" display="https://www82.hattrick.org/Img/Avatar/goatees/g2.png"/>
-    <hyperlink ref="V19" r:id="rId6" display="https://www82.hattrick.org/Img/Avatar/noses/n7.png"/>
-    <hyperlink ref="W19" r:id="rId7" display="https://www82.hattrick.org/Img/Avatar/hair/f2h5d.png"/>
-    <hyperlink ref="Q20" r:id="rId8" display="https://www89.hattrick.org/Img/Avatar/bodies/bd3_s1.png"/>
-    <hyperlink ref="R20" r:id="rId9" display="https://www89.hattrick.org/Img/Avatar/faces/f8a.png"/>
-    <hyperlink ref="S20" r:id="rId10" display="https://www89.hattrick.org/Img/Avatar/eyes/e24b.png"/>
-    <hyperlink ref="T20" r:id="rId11" display="https://www89.hattrick.org/Img/Avatar/mouths/m34b.png"/>
-    <hyperlink ref="V20" r:id="rId12" display="https://www89.hattrick.org/Img/Avatar/noses/n29.png"/>
-    <hyperlink ref="W20" r:id="rId13" display="https://www89.hattrick.org/Img/Avatar/hair/f8h8a.png"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\IdeaProjects\Hattrick_Scrapper\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukasz\IdeaProjects\Scrapper\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Swojski</t>
+  </si>
+  <si>
+    <t>Czekaj</t>
   </si>
 </sst>
 </file>
@@ -252,8 +255,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,9 +272,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -309,7 +312,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -381,7 +384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,21 +534,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2613,8 +2616,70 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>130</v>
+      </c>
+      <c r="J42">
+        <v>1000</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>3.5</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2626,7 +2691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2638,7 +2703,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2650,7 +2715,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2662,7 +2727,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2674,7 +2739,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2686,7 +2751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2698,7 +2763,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2710,7 +2775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2722,7 +2787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2734,7 +2799,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2746,7 +2811,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2758,7 +2823,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2770,7 +2835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2782,7 +2847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2794,7 +2859,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2806,7 +2871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2818,7 +2883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2830,7 +2895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2842,7 +2907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2854,7 +2919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2866,7 +2931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2878,7 +2943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2890,7 +2955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2902,7 +2967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2914,7 +2979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Czekaj</t>
+  </si>
+  <si>
+    <t>Hrynczyszyn</t>
   </si>
 </sst>
 </file>
@@ -534,15 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -2666,8 +2669,70 @@
         <v>6</v>
       </c>
     </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>850</v>
+      </c>
+      <c r="J43">
+        <v>1360</v>
+      </c>
+      <c r="K43">
+        <v>1.5</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <v>4.5</v>
+      </c>
+      <c r="P43">
+        <v>7.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2679,7 +2744,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2691,7 +2756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2703,7 +2768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2715,7 +2780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2727,7 +2792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2739,7 +2804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2751,7 +2816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2763,7 +2828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2775,7 +2840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2787,7 +2852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2799,7 +2864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2811,7 +2876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2823,7 +2888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2835,7 +2900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2847,7 +2912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2859,7 +2924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2871,7 +2936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2883,7 +2948,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2895,7 +2960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2907,7 +2972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2919,7 +2984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2931,7 +2996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2943,7 +3008,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2955,7 +3020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2967,7 +3032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2979,7 +3044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K43:P43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukasz\IdeaProjects\Scrapper\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\IdeaProjects\Hattrick_Scrapper\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Hrynczyszyn</t>
+  </si>
+  <si>
+    <t>Warowna</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -387,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,21 +540,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2719,8 +2722,70 @@
         <v>7.5</v>
       </c>
     </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>580</v>
+      </c>
+      <c r="J44">
+        <v>1160</v>
+      </c>
+      <c r="K44">
+        <v>1.5</v>
+      </c>
+      <c r="L44">
+        <v>3.5</v>
+      </c>
+      <c r="M44">
+        <v>3.5</v>
+      </c>
+      <c r="N44">
+        <v>5.5</v>
+      </c>
+      <c r="O44">
+        <v>4.5</v>
+      </c>
+      <c r="P44">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2732,7 +2797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2744,7 +2809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2756,7 +2821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2768,7 +2833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2780,7 +2845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2792,7 +2857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2804,7 +2869,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2816,7 +2881,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2828,7 +2893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2840,7 +2905,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2852,7 +2917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2864,7 +2929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2876,7 +2941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2888,7 +2953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2900,7 +2965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2912,7 +2977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2924,7 +2989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2936,7 +3001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2948,7 +3013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2960,7 +3025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2972,7 +3037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2984,7 +3049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2996,7 +3061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3008,7 +3073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3020,7 +3085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3032,7 +3097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K43:P43">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3044,7 +3109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:P43">
+  <conditionalFormatting sqref="K2:P44">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Warowna</t>
+  </si>
+  <si>
+    <t>Kulikowski</t>
+  </si>
+  <si>
+    <t>Cichon</t>
   </si>
 </sst>
 </file>
@@ -540,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2772,8 +2778,132 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>60</v>
+      </c>
+      <c r="J45">
+        <v>1000</v>
+      </c>
+      <c r="K45">
+        <v>1.5</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>3.5</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>3.5</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>3220</v>
+      </c>
+      <c r="J46">
+        <v>2440</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
+        <v>3.5</v>
+      </c>
+      <c r="N46">
+        <v>6.5</v>
+      </c>
+      <c r="O46">
+        <v>5.5</v>
+      </c>
+      <c r="P46">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2785,7 +2915,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2797,7 +2927,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2809,7 +2939,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2821,7 +2951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2833,7 +2963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2845,7 +2975,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2857,7 +2987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2869,7 +2999,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2881,7 +3011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2893,7 +3023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2905,7 +3035,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2917,7 +3047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2929,7 +3059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2941,7 +3071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2953,7 +3083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2965,7 +3095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2977,7 +3107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2989,7 +3119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3001,7 +3131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3013,7 +3143,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3025,7 +3155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3037,7 +3167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3049,7 +3179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3061,7 +3191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3073,7 +3203,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K43:P43">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3085,7 +3215,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K2:P44">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3097,7 +3227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:P43">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3109,7 +3239,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P44">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Cichon</t>
+  </si>
+  <si>
+    <t>Lejmanowicz</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2878,8 +2881,70 @@
         <v>8</v>
       </c>
     </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>60</v>
+      </c>
+      <c r="J47">
+        <v>1000</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>3</v>
+      </c>
+      <c r="P47">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2891,7 +2956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2903,7 +2968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2915,7 +2980,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2927,7 +2992,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2939,7 +3004,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2951,7 +3016,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2963,7 +3028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2975,7 +3040,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2987,7 +3052,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2999,7 +3064,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3011,7 +3076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3023,7 +3088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3035,7 +3100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3047,7 +3112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3059,7 +3124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3071,7 +3136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3083,7 +3148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3095,7 +3160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3107,7 +3172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3119,7 +3184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3131,7 +3196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3143,7 +3208,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3155,7 +3220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3167,7 +3232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3179,7 +3244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3191,7 +3256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K43:P43">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3203,7 +3268,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:P43">
+  <conditionalFormatting sqref="K2:P44">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3215,7 +3280,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P44">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3227,7 +3292,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3239,7 +3304,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Lejmanowicz</t>
+  </si>
+  <si>
+    <t>Molas</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2931,8 +2934,43 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48">
+        <v>1.5</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>4.5</v>
+      </c>
+      <c r="N48">
+        <v>4.5</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2944,7 +2982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2956,7 +2994,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2968,7 +3006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2980,7 +3018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2992,7 +3030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3004,7 +3042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3016,7 +3054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3028,7 +3066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3040,7 +3078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3052,7 +3090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3064,7 +3102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3076,7 +3114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3088,7 +3126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3100,7 +3138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3112,7 +3150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3124,7 +3162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3136,7 +3174,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3148,7 +3186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3160,7 +3198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3172,7 +3210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3184,7 +3222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3196,7 +3234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3208,7 +3246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3220,7 +3258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3232,7 +3270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3244,7 +3282,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K43:P43">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3256,7 +3294,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:P43">
+  <conditionalFormatting sqref="K2:P44">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3268,7 +3306,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P44">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3280,7 +3318,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3292,7 +3330,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3304,7 +3342,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:P47">
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2938,6 +2938,33 @@
       <c r="A48" t="s">
         <v>62</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>550</v>
+      </c>
+      <c r="J48">
+        <v>1160</v>
+      </c>
       <c r="K48">
         <v>1.5</v>
       </c>
@@ -2948,7 +2975,7 @@
         <v>4.5</v>
       </c>
       <c r="N48">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O48">
         <v>5</v>
@@ -2959,6 +2986,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -2970,7 +3021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2982,7 +3033,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2994,7 +3045,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3006,7 +3057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3018,7 +3069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3030,7 +3081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3042,7 +3093,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3054,7 +3105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3066,7 +3117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3078,7 +3129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3090,7 +3141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3102,7 +3153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3114,7 +3165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3126,7 +3177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3138,7 +3189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3150,7 +3201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3162,7 +3213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3174,7 +3225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3186,7 +3237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3198,7 +3249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3210,7 +3261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3222,7 +3273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3234,7 +3285,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3246,7 +3297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3258,7 +3309,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K43:P43">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3270,7 +3321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K2:P44">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3282,7 +3333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:P43">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3294,7 +3345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P44">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3306,32 +3357,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47:P47">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>Molas</t>
+  </si>
+  <si>
+    <t>Piskorz</t>
+  </si>
+  <si>
+    <t>Hubner</t>
+  </si>
+  <si>
+    <t>Walerczyk</t>
+  </si>
+  <si>
+    <t>Stachon</t>
   </si>
 </sst>
 </file>
@@ -552,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2984,8 +2996,256 @@
         <v>6</v>
       </c>
     </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>330</v>
+      </c>
+      <c r="J49">
+        <v>1000</v>
+      </c>
+      <c r="K49">
+        <v>1.5</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>110</v>
+      </c>
+      <c r="J50">
+        <v>1000</v>
+      </c>
+      <c r="K50">
+        <v>1.5</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>3.5</v>
+      </c>
+      <c r="O50">
+        <v>3.5</v>
+      </c>
+      <c r="P50">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>140</v>
+      </c>
+      <c r="J51">
+        <v>1080</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>3.5</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51">
+        <v>4.5</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>60</v>
+      </c>
+      <c r="J52">
+        <v>1000</v>
+      </c>
+      <c r="K52">
+        <v>1.5</v>
+      </c>
+      <c r="L52">
+        <v>3.5</v>
+      </c>
+      <c r="M52">
+        <v>3.5</v>
+      </c>
+      <c r="N52">
+        <v>3.5</v>
+      </c>
+      <c r="O52">
+        <v>3.5</v>
+      </c>
+      <c r="P52">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:P8">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -2997,7 +3257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3009,7 +3269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3021,7 +3281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3033,7 +3293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K14:P14">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3045,7 +3305,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3057,7 +3317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3069,7 +3329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3081,7 +3341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3093,7 +3353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3105,7 +3365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3117,7 +3377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3129,7 +3389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K23:P23">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3141,7 +3401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3153,7 +3413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K27:P27">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3165,7 +3425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3177,7 +3437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3189,7 +3449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3201,7 +3461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K37:P37">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3213,7 +3473,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3225,7 +3485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3237,7 +3497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3249,7 +3509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3261,7 +3521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K43:P43">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3273,7 +3533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K2:P44">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3285,7 +3545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3297,7 +3557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3309,7 +3569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:P43">
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3321,31 +3581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P44">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3357,7 +3593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:P47">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3369,7 +3605,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K50:P50">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:P51">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Drwal</t>
   </si>
   <si>
-    <t>Ketteler</t>
-  </si>
-  <si>
     <t>Smoter</t>
   </si>
   <si>
@@ -225,6 +222,12 @@
   </si>
   <si>
     <t>Stachon</t>
+  </si>
+  <si>
+    <t>Birkholc</t>
+  </si>
+  <si>
+    <t>Białek</t>
   </si>
 </sst>
 </file>
@@ -564,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1089,46 +1092,46 @@
         <v>1</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
       <c r="F11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>1690</v>
+        <v>470</v>
       </c>
       <c r="J11">
-        <v>1320</v>
+        <v>1160</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M11">
         <v>5.5</v>
       </c>
       <c r="N11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P11">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1142,43 +1145,43 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="J12">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L12">
         <v>4.5</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O12">
         <v>5.5</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1189,25 +1192,25 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="J13">
         <v>1080</v>
@@ -1216,16 +1219,16 @@
         <v>1.5</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O13">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <v>4.5</v>
@@ -1239,25 +1242,25 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="J14">
         <v>1080</v>
@@ -1266,19 +1269,19 @@
         <v>1.5</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1286,49 +1289,49 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="J15">
-        <v>1080</v>
+        <v>1960</v>
       </c>
       <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
         <v>1.5</v>
       </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>4.5</v>
-      </c>
       <c r="N15">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1336,49 +1339,49 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="J16">
-        <v>1960</v>
+        <v>1080</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1389,16 +1392,16 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1407,28 +1410,28 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="J17">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P17">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1442,28 +1445,28 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J18">
         <v>1000</v>
       </c>
       <c r="K18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>2.5</v>
@@ -1472,14 +1475,21 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.5</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
@@ -1489,46 +1499,46 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>860</v>
       </c>
       <c r="J19">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L19">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P19">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1546,54 +1556,47 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>860</v>
+        <v>80</v>
       </c>
       <c r="J20">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="K20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>6.5</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
@@ -1603,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1618,31 +1621,31 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="J21">
-        <v>1000</v>
+        <v>1320</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1659,10 +1662,10 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -1671,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="I22">
-        <v>480</v>
+        <v>860</v>
       </c>
       <c r="J22">
         <v>1320</v>
@@ -1680,19 +1683,19 @@
         <v>2.5</v>
       </c>
       <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
         <v>5.5</v>
-      </c>
-      <c r="M22">
-        <v>5.5</v>
-      </c>
-      <c r="N22">
-        <v>4</v>
-      </c>
-      <c r="O22">
-        <v>4.5</v>
-      </c>
-      <c r="P22">
-        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -1700,49 +1703,49 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
       <c r="H23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>860</v>
+        <v>370</v>
       </c>
       <c r="J23">
-        <v>1320</v>
+        <v>1240</v>
       </c>
       <c r="K23">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -1750,49 +1753,49 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <v>4</v>
       </c>
       <c r="I24">
-        <v>370</v>
+        <v>520</v>
       </c>
       <c r="J24">
-        <v>1240</v>
+        <v>1160</v>
       </c>
       <c r="K24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M24">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P24">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -1803,16 +1806,16 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -1821,29 +1824,30 @@
         <v>4</v>
       </c>
       <c r="I25">
-        <v>520</v>
+        <v>60</v>
       </c>
       <c r="J25">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="M25">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>4.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
@@ -1853,48 +1857,47 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="J26">
         <v>1000</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="L26">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N26">
         <v>3.5</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="2"/>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
@@ -1904,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>3</v>
       </c>
       <c r="I27">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="J27">
         <v>1000</v>
       </c>
       <c r="K27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -1954,46 +1957,46 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="J28">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="K28">
         <v>2</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M28">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2004,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -2013,28 +2016,28 @@
         <v>5</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J29">
         <v>1080</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N29">
         <v>4.5</v>
@@ -2043,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="P29">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2054,46 +2057,46 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>4</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="J30">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L30">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P30">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2104,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -2113,34 +2116,34 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="J31">
         <v>1000</v>
       </c>
       <c r="K31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O31">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
         <v>5.5</v>
@@ -2154,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -2163,37 +2166,37 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="J32">
         <v>1000</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N32">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P32">
-        <v>5.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2204,46 +2207,46 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="J33">
         <v>1000</v>
       </c>
       <c r="K33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O33">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2254,46 +2257,46 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="J34">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="K34">
         <v>2</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N34">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2301,49 +2304,49 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
       <c r="I35">
-        <v>160</v>
+        <v>630</v>
       </c>
       <c r="J35">
-        <v>1080</v>
+        <v>2280</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2351,49 +2354,49 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>630</v>
+        <v>790</v>
       </c>
       <c r="J36">
-        <v>2280</v>
+        <v>2040</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2404,46 +2407,46 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>790</v>
+        <v>1020</v>
       </c>
       <c r="J37">
-        <v>2040</v>
+        <v>1160</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N37">
+        <v>4.5</v>
+      </c>
+      <c r="O37">
         <v>5.5</v>
       </c>
-      <c r="O37">
-        <v>3.5</v>
-      </c>
       <c r="P37">
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2454,46 +2457,46 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>1020</v>
+        <v>50</v>
       </c>
       <c r="J38">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
         <v>1.5</v>
       </c>
-      <c r="L38">
-        <v>4</v>
-      </c>
       <c r="M38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2504,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2513,37 +2516,37 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="J39">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P39">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2554,46 +2557,46 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="J40">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L40">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
       <c r="N40">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O40">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2607,43 +2610,43 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="J41">
         <v>1000</v>
       </c>
       <c r="K41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2657,43 +2660,43 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>130</v>
+        <v>850</v>
       </c>
       <c r="J42">
-        <v>1000</v>
+        <v>1360</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
         <v>3</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
-        <v>6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2707,43 +2710,43 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>850</v>
+        <v>580</v>
       </c>
       <c r="J43">
-        <v>1360</v>
+        <v>1160</v>
       </c>
       <c r="K43">
         <v>1.5</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O43">
         <v>4.5</v>
       </c>
       <c r="P43">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2757,43 +2760,43 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="J44">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="K44">
         <v>1.5</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <v>3.5</v>
       </c>
       <c r="N44">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2804,46 +2807,46 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H45">
         <v>4</v>
       </c>
       <c r="I45">
-        <v>60</v>
+        <v>3220</v>
       </c>
       <c r="J45">
-        <v>1000</v>
+        <v>2440</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
         <v>3.5</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2854,46 +2857,46 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>4</v>
       </c>
       <c r="I46">
-        <v>3220</v>
+        <v>60</v>
       </c>
       <c r="J46">
-        <v>2440</v>
+        <v>1000</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2904,46 +2907,46 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>60</v>
+        <v>550</v>
       </c>
       <c r="J47">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P47">
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2954,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -2966,16 +2969,16 @@
         <v>3</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="J48">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="K48">
         <v>1.5</v>
@@ -2984,16 +2987,16 @@
         <v>4</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O48">
         <v>5</v>
       </c>
       <c r="P48">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3004,25 +3007,25 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="J49">
         <v>1000</v>
@@ -3031,19 +3034,19 @@
         <v>1.5</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3057,43 +3060,43 @@
         <v>3</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="J50">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="K50">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3104,46 +3107,46 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="J51">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
         <v>3.5</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3154,50 +3157,148 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>60</v>
+        <v>310</v>
       </c>
       <c r="J52">
         <v>1000</v>
       </c>
       <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2.5</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>5.5</v>
+      </c>
+      <c r="O52">
+        <v>5.5</v>
+      </c>
+      <c r="P52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>190</v>
+      </c>
+      <c r="J53">
+        <v>1000</v>
+      </c>
+      <c r="K53">
         <v>1.5</v>
       </c>
-      <c r="L52">
-        <v>3.5</v>
-      </c>
-      <c r="M52">
-        <v>3.5</v>
-      </c>
-      <c r="N52">
-        <v>3.5</v>
-      </c>
-      <c r="O52">
-        <v>3.5</v>
-      </c>
-      <c r="P52">
-        <v>3.5</v>
+      <c r="L53">
+        <v>3.5</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <v>4.5</v>
+      </c>
+      <c r="P53">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:P8">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3209,7 +3310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3221,7 +3322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3233,7 +3334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3245,7 +3346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3257,7 +3358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3269,7 +3370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3281,7 +3382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3293,7 +3394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P14">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3305,7 +3406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3317,7 +3418,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3329,7 +3430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3341,7 +3442,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3353,7 +3454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3365,7 +3466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3377,7 +3478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3389,7 +3490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:P23">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3401,7 +3502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3413,7 +3514,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:P27">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3425,7 +3526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3437,7 +3538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3449,7 +3550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:P31">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3461,7 +3562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:P37">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3473,7 +3574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3485,19 +3586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K44:P44">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3509,7 +3598,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3521,7 +3610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:P43">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3533,31 +3622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P44">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3569,7 +3634,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:P47">
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3581,7 +3646,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:P50">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3593,7 +3682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3605,7 +3694,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3617,7 +3706,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3629,7 +3730,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Białek</t>
+  </si>
+  <si>
+    <t>Brunbauer</t>
   </si>
 </sst>
 </file>
@@ -567,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3249,8 +3252,106 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>70</v>
+      </c>
+      <c r="J54">
+        <v>1080</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>3.5</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:P8">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3262,7 +3363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3274,7 +3375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3286,7 +3387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3298,7 +3399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3310,7 +3411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3322,7 +3423,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3334,7 +3435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3346,7 +3447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3358,7 +3459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3370,7 +3471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3382,7 +3483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3394,7 +3495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3406,7 +3507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3418,7 +3519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3430,7 +3531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3442,7 +3543,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3454,7 +3555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3466,7 +3567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3478,7 +3579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3490,7 +3591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3502,7 +3603,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3514,7 +3615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3526,7 +3627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3538,19 +3639,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K44:P44">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3562,7 +3651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3574,7 +3663,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3586,19 +3675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:P44">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3610,7 +3687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3622,7 +3699,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:P47">
+  <conditionalFormatting sqref="K49:P49">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:P50">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3634,7 +3735,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3646,7 +3747,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3658,7 +3759,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H54">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3669,8 +3782,28 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3682,7 +3815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K54:P54">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3694,49 +3827,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H53">
+  <conditionalFormatting sqref="K2:P54">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
+        <color theme="0"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Brunbauer</t>
+  </si>
+  <si>
+    <t>Patyk</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3302,8 +3305,70 @@
         <v>4</v>
       </c>
     </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>310</v>
+      </c>
+      <c r="J55">
+        <v>1000</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>4.5</v>
+      </c>
+      <c r="N55">
+        <v>3.5</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -3315,7 +3380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -3327,7 +3392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -3339,7 +3404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -3351,7 +3416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3363,7 +3428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3375,7 +3440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3387,7 +3452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3399,7 +3464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3411,7 +3476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3423,7 +3488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3435,7 +3500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3447,7 +3512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3459,7 +3524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3471,7 +3536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3483,7 +3548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3495,7 +3560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3507,7 +3572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3519,7 +3584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3531,7 +3596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3543,7 +3608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3555,7 +3620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3567,7 +3632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3579,7 +3644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3591,7 +3656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3603,7 +3668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3615,7 +3680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3627,19 +3692,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3651,7 +3716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3663,19 +3728,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3687,7 +3752,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3699,7 +3764,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3711,7 +3776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3723,7 +3788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3735,7 +3800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3747,7 +3812,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H55">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3758,20 +3835,28 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H54">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3782,58 +3867,38 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
+        <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Patyk</t>
+  </si>
+  <si>
+    <t>Herma</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3355,8 +3358,70 @@
         <v>4</v>
       </c>
     </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>410</v>
+      </c>
+      <c r="J56">
+        <v>1160</v>
+      </c>
+      <c r="K56">
+        <v>2.5</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -3368,7 +3433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -3380,7 +3445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -3392,7 +3457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -3404,7 +3469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -3416,7 +3481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3428,7 +3493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3440,7 +3505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3452,7 +3517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3464,7 +3529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3476,7 +3541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3488,7 +3553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3500,7 +3565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3512,7 +3577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3524,7 +3589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3536,7 +3601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3548,7 +3613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3560,7 +3625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3572,7 +3637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3584,7 +3649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3596,7 +3661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3608,7 +3673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3620,7 +3685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3632,7 +3697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3644,7 +3709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3656,7 +3721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3668,7 +3733,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3680,19 +3745,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3704,7 +3769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3716,19 +3781,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3740,7 +3805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3752,7 +3817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3764,7 +3829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3776,7 +3841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3788,7 +3853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3800,7 +3865,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H56 I56:J56">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3811,20 +3888,28 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H55">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3835,64 +3920,44 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\IdeaProjects\Hattrick_Scrapper\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukasz\IdeaProjects\Scrapper\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Herma</t>
+  </si>
+  <si>
+    <t>Olczyk</t>
+  </si>
+  <si>
+    <t>Makowski</t>
   </si>
 </sst>
 </file>
@@ -297,8 +303,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,9 +320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +360,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -426,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,21 +582,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3334,10 +3340,10 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="J55">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -3384,10 +3390,10 @@
         <v>2</v>
       </c>
       <c r="I56">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="K56">
         <v>2.5</v>
@@ -3408,8 +3414,168 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>70</v>
+      </c>
+      <c r="J57">
+        <v>1080</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>2.5</v>
+      </c>
+      <c r="N57">
+        <v>5.5</v>
+      </c>
+      <c r="O57">
+        <v>4.5</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>70</v>
+      </c>
+      <c r="J58">
+        <v>1080</v>
+      </c>
+      <c r="K58">
+        <v>1.5</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58">
+        <v>3.5</v>
+      </c>
+      <c r="O58">
+        <v>4.5</v>
+      </c>
+      <c r="P58">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:P8">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:P9">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -3421,7 +3587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -3433,7 +3599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -3445,7 +3611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -3457,7 +3623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -3469,7 +3635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -3481,7 +3647,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3493,7 +3659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3505,7 +3671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3517,7 +3683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3529,7 +3695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3541,7 +3707,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3553,7 +3719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3565,7 +3731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3577,7 +3743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3589,7 +3755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3601,7 +3767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3613,7 +3779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3625,7 +3791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3637,7 +3803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3649,7 +3815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3661,7 +3827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3673,7 +3839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3685,19 +3851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K44:P44">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3709,7 +3863,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3721,7 +3875,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3733,19 +3887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:P44">
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3757,7 +3899,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3769,7 +3911,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3781,7 +3923,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:P47">
+  <conditionalFormatting sqref="K50:P50">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:P51">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3793,7 +3959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3805,7 +3971,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H58">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3816,8 +3994,48 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3829,7 +4047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K54:P54">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3841,53 +4059,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P54">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H56 I56:J56">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3898,66 +4106,20 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukasz\IdeaProjects\Scrapper\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\IdeaProjects\Hattrick_Scrapper\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>Makowski</t>
+  </si>
+  <si>
+    <t>Bożek</t>
+  </si>
+  <si>
+    <t>Więdłocha</t>
   </si>
 </sst>
 </file>
@@ -303,8 +309,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -320,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -360,7 +366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -432,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,21 +588,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3514,8 +3520,120 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>1720</v>
+      </c>
+      <c r="J59">
+        <v>1440</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>5.5</v>
+      </c>
+      <c r="N59">
+        <v>5.5</v>
+      </c>
+      <c r="O59">
+        <v>6.5</v>
+      </c>
+      <c r="P59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>450</v>
+      </c>
+      <c r="J60">
+        <v>1080</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>3.5</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>4.5</v>
+      </c>
+      <c r="O60">
+        <v>4.5</v>
+      </c>
+      <c r="P60">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -3527,7 +3645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -3539,7 +3657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -3551,7 +3669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -3563,7 +3681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -3575,7 +3693,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -3587,7 +3705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -3599,7 +3717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -3611,7 +3729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -3623,7 +3741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -3635,7 +3753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -3647,7 +3765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3659,7 +3777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3671,7 +3789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3683,7 +3801,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3695,7 +3813,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3707,7 +3825,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3719,7 +3837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3731,7 +3849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3743,7 +3861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3755,7 +3873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3767,7 +3885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3779,7 +3897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3791,7 +3909,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3803,7 +3921,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3815,7 +3933,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3827,7 +3945,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3839,19 +3957,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3863,7 +3981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3875,19 +3993,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3899,7 +4017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3911,7 +4029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3923,7 +4041,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3935,7 +4053,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3947,7 +4065,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3959,7 +4077,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H60 I59:J60">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3970,20 +4100,48 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H58">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3994,132 +4152,92 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Więdłocha</t>
+  </si>
+  <si>
+    <t>Szlachcic</t>
+  </si>
+  <si>
+    <t>Konczak</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3620,8 +3626,132 @@
         <v>6</v>
       </c>
     </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>280</v>
+      </c>
+      <c r="J61">
+        <v>1160</v>
+      </c>
+      <c r="K61">
+        <v>2.5</v>
+      </c>
+      <c r="L61">
+        <v>4.5</v>
+      </c>
+      <c r="M61">
+        <v>4.5</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61">
+        <v>4.5</v>
+      </c>
+      <c r="P61">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>720</v>
+      </c>
+      <c r="J62">
+        <v>1160</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>2.5</v>
+      </c>
+      <c r="O62">
+        <v>4.5</v>
+      </c>
+      <c r="P62">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -3633,7 +3763,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -3645,7 +3775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -3657,7 +3787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -3669,7 +3799,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -3681,7 +3811,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -3693,7 +3823,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -3705,7 +3835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -3717,7 +3847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -3729,7 +3859,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -3741,7 +3871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -3753,7 +3883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -3765,7 +3895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3777,7 +3907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3789,7 +3919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3801,7 +3931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3813,7 +3943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3825,7 +3955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3837,7 +3967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3849,7 +3979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3861,7 +3991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3873,7 +4003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3885,7 +4015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3897,7 +4027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3909,7 +4039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3921,7 +4051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3933,19 +4063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K44:P44">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3957,7 +4075,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:P44">
+  <conditionalFormatting sqref="K45:P45">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3969,31 +4099,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4005,7 +4135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4017,7 +4147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4029,7 +4159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4041,7 +4171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4053,7 +4183,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H62">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -4064,8 +4206,48 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -4077,19 +4259,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H60 I59:J60">
+  <conditionalFormatting sqref="K54:P54">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -4100,26 +4270,68 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4130,102 +4342,20 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4237,7 +4367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>Konczak</t>
+  </si>
+  <si>
+    <t>Sztorc</t>
+  </si>
+  <si>
+    <t>Pociask</t>
   </si>
 </sst>
 </file>
@@ -594,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3726,8 +3732,144 @@
         <v>7</v>
       </c>
     </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>310</v>
+      </c>
+      <c r="J63">
+        <v>1160</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>3.5</v>
+      </c>
+      <c r="M63">
+        <v>3.5</v>
+      </c>
+      <c r="N63">
+        <v>3.5</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>150</v>
+      </c>
+      <c r="J64">
+        <v>1000</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>3.5</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -3739,7 +3881,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -3751,7 +3893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -3763,7 +3905,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -3775,7 +3917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -3787,7 +3929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -3799,7 +3941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -3811,7 +3953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -3823,7 +3965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -3835,7 +3977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -3847,7 +3989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -3859,7 +4001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -3871,7 +4013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -3883,7 +4025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -3895,7 +4037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3907,7 +4049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3919,7 +4061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3931,7 +4073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3943,7 +4085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3955,7 +4097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3967,7 +4109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3979,7 +4121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3991,7 +4133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -4003,7 +4145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -4015,7 +4157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -4027,19 +4169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K44:P44">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -4051,7 +4181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4063,31 +4193,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:P44">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K46:P46">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -4099,7 +4217,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:P47">
+  <conditionalFormatting sqref="K48:P48">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:P49">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4111,7 +4253,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4123,7 +4265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4135,7 +4277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4147,7 +4289,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H64">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4158,8 +4312,48 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4171,7 +4365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K54:P54">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4183,29 +4377,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H62">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4216,16 +4400,56 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4236,102 +4460,20 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4343,7 +4485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4355,7 +4497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4367,7 +4509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Pociask</t>
+  </si>
+  <si>
+    <t>Misiag</t>
+  </si>
+  <si>
+    <t>Korulski</t>
   </si>
 </sst>
 </file>
@@ -600,10 +606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3832,8 +3839,75 @@
         <v>5</v>
       </c>
     </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>490</v>
+      </c>
+      <c r="J65">
+        <v>1280</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>3.5</v>
+      </c>
+      <c r="M65">
+        <v>3.5</v>
+      </c>
+      <c r="N65">
+        <v>4.5</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -3845,7 +3919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -3857,7 +3931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -3869,7 +3943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -3881,7 +3955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -3893,7 +3967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -3905,7 +3979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -3917,7 +3991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -3929,7 +4003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -3941,7 +4015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -3953,7 +4027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -3965,7 +4039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -3977,7 +4051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -3989,7 +4063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -4001,7 +4075,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -4013,7 +4087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -4025,7 +4099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -4037,7 +4111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -4049,7 +4123,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -4061,7 +4135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -4073,7 +4147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -4085,7 +4159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4097,7 +4171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -4109,7 +4183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -4121,7 +4195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -4133,7 +4207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -4145,7 +4219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -4157,19 +4231,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -4181,7 +4255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4193,19 +4267,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -4217,7 +4291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -4229,7 +4303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -4241,7 +4315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4253,7 +4327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4265,7 +4339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4277,7 +4351,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H65">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4288,20 +4374,48 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H64">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4312,132 +4426,92 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4449,7 +4523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4461,7 +4535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4473,7 +4547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4485,7 +4559,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4497,7 +4571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4509,7 +4583,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -266,7 +266,10 @@
     <t>Misiag</t>
   </si>
   <si>
-    <t>Korulski</t>
+    <t>Zadworny</t>
+  </si>
+  <si>
+    <t>Kierzek</t>
   </si>
 </sst>
 </file>
@@ -606,11 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3893,6 +3896,101 @@
       <c r="A66" t="s">
         <v>80</v>
       </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>1080</v>
+      </c>
+      <c r="J66">
+        <v>1600</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2.5</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>5.5</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>200</v>
+      </c>
+      <c r="J67">
+        <v>1000</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>4.5</v>
+      </c>
+      <c r="M67">
+        <v>4.5</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
@@ -4363,7 +4461,47 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H65">
+  <conditionalFormatting sqref="B2:H67">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4372,46 +4510,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>Kierzek</t>
+  </si>
+  <si>
+    <t>Wojtera</t>
+  </si>
+  <si>
+    <t>Bianga</t>
+  </si>
+  <si>
+    <t>Wysoczynski</t>
   </si>
 </sst>
 </file>
@@ -609,11 +618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:W70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3992,8 +4001,194 @@
         <v>4</v>
       </c>
     </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
+        <v>1000</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>2.5</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68">
+        <v>4</v>
+      </c>
+      <c r="P68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
+        <v>1000</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2.5</v>
+      </c>
+      <c r="M69">
+        <v>2.5</v>
+      </c>
+      <c r="N69">
+        <v>3.5</v>
+      </c>
+      <c r="O69">
+        <v>3.5</v>
+      </c>
+      <c r="P69">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>130</v>
+      </c>
+      <c r="J70">
+        <v>1000</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>3.5</v>
+      </c>
+      <c r="O70">
+        <v>3.5</v>
+      </c>
+      <c r="P70">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -4005,7 +4200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -4017,7 +4212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -4029,7 +4224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -4041,7 +4236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -4053,7 +4248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -4065,7 +4260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -4077,7 +4272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4089,7 +4284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4101,7 +4296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -4113,7 +4308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -4125,7 +4320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -4137,7 +4332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -4149,7 +4344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -4161,7 +4356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -4173,7 +4368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -4185,7 +4380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -4197,7 +4392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -4209,7 +4404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -4221,7 +4416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -4233,7 +4428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -4245,7 +4440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -4257,7 +4452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4269,7 +4464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -4281,7 +4476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -4293,19 +4488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K44:P44">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -4317,7 +4500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -4329,31 +4512,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:P44">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K46:P46">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4365,7 +4536,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:P47">
+  <conditionalFormatting sqref="K48:P48">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:P49">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -4377,7 +4572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -4389,7 +4584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -4401,7 +4596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -4413,7 +4608,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H70">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4425,7 +4672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4437,7 +4684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K54:P54">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4449,155 +4696,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H67">
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4609,7 +4804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4621,7 +4816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4633,7 +4828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4645,7 +4840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4657,7 +4852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4669,7 +4864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4681,7 +4876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Wysoczynski</t>
+  </si>
+  <si>
+    <t>Kalyta</t>
   </si>
 </sst>
 </file>
@@ -618,11 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4151,6 +4154,56 @@
         <v>4</v>
       </c>
     </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>380</v>
+      </c>
+      <c r="J71">
+        <v>1080</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>3.5</v>
+      </c>
+      <c r="N71">
+        <v>4.5</v>
+      </c>
+      <c r="O71">
+        <v>4.5</v>
+      </c>
+      <c r="P71">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
     <cfRule type="colorScale" priority="64">
@@ -4620,7 +4673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H70">
+  <conditionalFormatting sqref="B2:H71">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>Kalyta</t>
+  </si>
+  <si>
+    <t>Skomorowski</t>
+  </si>
+  <si>
+    <t>Staszewski</t>
   </si>
 </sst>
 </file>
@@ -621,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73:J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4204,8 +4210,120 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>7</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>1110</v>
+      </c>
+      <c r="J72">
+        <v>1440</v>
+      </c>
+      <c r="K72">
+        <v>1.5</v>
+      </c>
+      <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>4.5</v>
+      </c>
+      <c r="O72">
+        <v>4.5</v>
+      </c>
+      <c r="P72">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>670</v>
+      </c>
+      <c r="J73">
+        <v>1160</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73">
+        <v>5</v>
+      </c>
+      <c r="P73">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -4217,7 +4335,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -4229,7 +4347,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -4241,7 +4359,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -4253,7 +4371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -4265,7 +4383,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -4277,7 +4395,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -4289,7 +4407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -4301,7 +4419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -4313,7 +4431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -4325,7 +4443,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4337,7 +4455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4349,7 +4467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -4361,7 +4479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -4373,7 +4491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -4385,7 +4503,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -4397,7 +4515,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -4409,7 +4527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -4421,7 +4539,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -4433,7 +4551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -4445,7 +4563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -4457,7 +4575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -4469,7 +4587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -4481,7 +4599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -4493,7 +4611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -4505,7 +4623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4517,7 +4635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -4529,19 +4647,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -4553,7 +4671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -4565,19 +4683,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4589,7 +4707,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -4601,7 +4719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -4613,7 +4731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -4625,7 +4743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -4637,7 +4755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -4649,7 +4767,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H73">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -4661,155 +4831,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H71">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4821,7 +4939,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4833,7 +4951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4845,7 +4963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4857,7 +4975,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4869,7 +4987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4881,7 +4999,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4893,7 +5011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4905,7 +5023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4917,7 +5035,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4929,7 +5047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t>Staszewski</t>
+  </si>
+  <si>
+    <t>Korulski</t>
+  </si>
+  <si>
+    <t>Płochocki</t>
+  </si>
+  <si>
+    <t>Kosciow</t>
   </si>
 </sst>
 </file>
@@ -627,11 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73:J73"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4310,8 +4319,194 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>290</v>
+      </c>
+      <c r="J74">
+        <v>1000</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74">
+        <v>4.5</v>
+      </c>
+      <c r="P74">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>7</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1250</v>
+      </c>
+      <c r="J75">
+        <v>1560</v>
+      </c>
+      <c r="K75">
+        <v>1.5</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>4.5</v>
+      </c>
+      <c r="O75">
+        <v>4.5</v>
+      </c>
+      <c r="P75">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>150</v>
+      </c>
+      <c r="J76">
+        <v>1080</v>
+      </c>
+      <c r="K76">
+        <v>1.5</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76">
+        <v>3.5</v>
+      </c>
+      <c r="P76">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -4323,7 +4518,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -4335,7 +4530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -4347,7 +4542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -4359,7 +4554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -4371,7 +4566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -4383,7 +4578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -4395,7 +4590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -4407,7 +4602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -4419,7 +4614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -4431,7 +4626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -4443,7 +4638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4455,7 +4650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4467,7 +4662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -4479,7 +4674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -4491,7 +4686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -4503,7 +4698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -4515,7 +4710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -4527,7 +4722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -4539,7 +4734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -4551,7 +4746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -4563,7 +4758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -4575,7 +4770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -4587,7 +4782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -4599,7 +4794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -4611,19 +4806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K44:P44">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4635,7 +4818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -4647,31 +4830,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:P44">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K46:P46">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -4683,7 +4854,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:P47">
+  <conditionalFormatting sqref="K48:P48">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:P49">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -4695,7 +4890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4707,7 +4902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -4719,7 +4914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -4731,7 +4926,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H76">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -4743,7 +4990,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -4755,7 +5002,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K54:P54">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -4767,155 +5014,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H73">
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4927,7 +5122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4939,7 +5134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4951,7 +5146,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4963,7 +5158,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4975,7 +5170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4987,7 +5182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4999,7 +5194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5011,7 +5206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5023,7 +5218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5035,7 +5230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5047,7 +5242,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>Kosciow</t>
+  </si>
+  <si>
+    <t>Mrowka</t>
+  </si>
+  <si>
+    <t>Smycz</t>
   </si>
 </sst>
 </file>
@@ -636,11 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4469,8 +4475,120 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>140</v>
+      </c>
+      <c r="J77">
+        <v>1000</v>
+      </c>
+      <c r="K77">
+        <v>1.5</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>4.5</v>
+      </c>
+      <c r="O77">
+        <v>4</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>560</v>
+      </c>
+      <c r="J78">
+        <v>1160</v>
+      </c>
+      <c r="K78">
+        <v>0.5</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78">
+        <v>5.5</v>
+      </c>
+      <c r="P78">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -4482,7 +4600,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -4494,7 +4612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -4506,7 +4624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -4518,7 +4636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -4530,7 +4648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -4542,7 +4660,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -4554,7 +4672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -4566,7 +4684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -4578,7 +4696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -4590,7 +4708,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -4602,7 +4720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -4614,7 +4732,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -4626,7 +4744,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -4638,7 +4756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4650,7 +4768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4662,7 +4780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -4674,7 +4792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -4686,7 +4804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -4698,7 +4816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -4710,7 +4828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -4722,7 +4840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -4734,7 +4852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -4746,7 +4864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -4758,7 +4876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -4770,7 +4888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -4782,7 +4900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -4794,19 +4912,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4818,7 +4936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -4830,19 +4948,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -4854,7 +4972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -4866,7 +4984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -4878,7 +4996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -4890,7 +5008,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4902,7 +5020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -4914,7 +5032,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H78">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -4926,155 +5096,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H76">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5086,7 +5204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5098,7 +5216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5110,7 +5228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5122,7 +5240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5134,7 +5252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5146,7 +5264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5158,7 +5276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5170,7 +5288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5182,7 +5300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5194,7 +5312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5206,7 +5324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5218,7 +5336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5230,7 +5348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5242,7 +5360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Smycz</t>
+  </si>
+  <si>
+    <t>Guca</t>
+  </si>
+  <si>
+    <t>Borys</t>
   </si>
 </sst>
 </file>
@@ -642,11 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R71" sqref="R71"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4575,8 +4581,120 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>970</v>
+      </c>
+      <c r="J79">
+        <v>1240</v>
+      </c>
+      <c r="K79">
+        <v>-1</v>
+      </c>
+      <c r="L79">
+        <v>-1</v>
+      </c>
+      <c r="M79">
+        <v>2.5</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
+        <v>5</v>
+      </c>
+      <c r="P79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>550</v>
+      </c>
+      <c r="J80">
+        <v>1080</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>3.5</v>
+      </c>
+      <c r="M80">
+        <v>4.5</v>
+      </c>
+      <c r="N80">
+        <v>4.5</v>
+      </c>
+      <c r="O80">
+        <v>5.5</v>
+      </c>
+      <c r="P80">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -4588,7 +4706,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -4600,7 +4718,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -4612,7 +4730,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -4624,7 +4742,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -4636,7 +4754,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -4648,7 +4766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -4660,7 +4778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -4672,7 +4790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -4684,7 +4802,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -4696,7 +4814,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -4708,7 +4826,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -4720,7 +4838,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -4732,7 +4850,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -4744,7 +4862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -4756,7 +4874,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4768,7 +4886,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4780,7 +4898,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -4792,7 +4910,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -4804,7 +4922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -4816,7 +4934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -4828,7 +4946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -4840,7 +4958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -4852,7 +4970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -4864,7 +4982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -4876,7 +4994,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -4888,7 +5006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -4900,19 +5018,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -4924,7 +5042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4936,19 +5054,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -4960,7 +5078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -4972,7 +5090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -4984,7 +5102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -4996,7 +5114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -5008,7 +5126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5020,7 +5138,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H80">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -5032,155 +5202,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H78">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5192,7 +5310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5204,7 +5322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5216,7 +5334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5228,7 +5346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5240,7 +5358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5252,7 +5370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5264,7 +5382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5276,7 +5394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5288,7 +5406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5300,7 +5418,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5312,7 +5430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5324,7 +5442,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5336,7 +5454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5348,7 +5466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5360,7 +5478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:P77">
+  <conditionalFormatting sqref="K80:P80">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -309,6 +309,15 @@
   </si>
   <si>
     <t>Borys</t>
+  </si>
+  <si>
+    <t>Strzala</t>
+  </si>
+  <si>
+    <t>Palma</t>
+  </si>
+  <si>
+    <t>Smolorz</t>
   </si>
 </sst>
 </file>
@@ -648,11 +657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W80"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4681,8 +4690,194 @@
         <v>6</v>
       </c>
     </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>370</v>
+      </c>
+      <c r="J81">
+        <v>1240</v>
+      </c>
+      <c r="K81">
+        <v>1.5</v>
+      </c>
+      <c r="L81">
+        <v>3.5</v>
+      </c>
+      <c r="M81">
+        <v>3.5</v>
+      </c>
+      <c r="N81">
+        <v>5.5</v>
+      </c>
+      <c r="O81">
+        <v>4.5</v>
+      </c>
+      <c r="P81">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>510</v>
+      </c>
+      <c r="J82">
+        <v>1160</v>
+      </c>
+      <c r="K82">
+        <v>1.5</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>4.5</v>
+      </c>
+      <c r="O82">
+        <v>3.5</v>
+      </c>
+      <c r="P82">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>620</v>
+      </c>
+      <c r="J83">
+        <v>1520</v>
+      </c>
+      <c r="K83">
+        <v>1.5</v>
+      </c>
+      <c r="L83">
+        <v>3.5</v>
+      </c>
+      <c r="M83">
+        <v>3.5</v>
+      </c>
+      <c r="N83">
+        <v>6</v>
+      </c>
+      <c r="O83">
+        <v>4.5</v>
+      </c>
+      <c r="P83">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -4694,7 +4889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -4706,7 +4901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -4718,7 +4913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -4730,7 +4925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -4742,7 +4937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -4754,7 +4949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -4766,7 +4961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -4778,7 +4973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -4790,7 +4985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -4802,7 +4997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -4814,7 +5009,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -4826,7 +5021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -4838,7 +5033,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -4850,7 +5045,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -4862,7 +5057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -4874,7 +5069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4886,7 +5081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4898,7 +5093,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -4910,7 +5105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -4922,7 +5117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -4934,7 +5129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -4946,7 +5141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -4958,7 +5153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -4970,7 +5165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -4982,19 +5177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K44:P44">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5006,7 +5189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5018,31 +5201,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:P44">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K46:P46">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:P47">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5054,7 +5225,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:P47">
+  <conditionalFormatting sqref="K48:P48">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:P49">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -5066,7 +5261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -5078,7 +5273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -5090,7 +5285,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -5102,7 +5297,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H83">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -5114,7 +5361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K2:P53">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -5126,7 +5373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K54:P54">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5138,155 +5385,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H80">
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5298,7 +5493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5310,7 +5505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5322,7 +5517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5334,7 +5529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5346,7 +5541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5358,7 +5553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5370,7 +5565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5382,7 +5577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5394,7 +5589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5406,7 +5601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5418,7 +5613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5430,7 +5625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5442,7 +5637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K80:P80">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5454,7 +5649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K81:P81">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5466,7 +5661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:P77">
+  <conditionalFormatting sqref="K82:P82">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5478,7 +5673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:P80">
+  <conditionalFormatting sqref="K83:P83">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Smolorz</t>
+  </si>
+  <si>
+    <t>Trzaskała</t>
   </si>
 </sst>
 </file>
@@ -657,11 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4840,8 +4843,70 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>590</v>
+      </c>
+      <c r="J84">
+        <v>1160</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>4.5</v>
+      </c>
+      <c r="M84">
+        <v>4.5</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84">
+        <v>4.5</v>
+      </c>
+      <c r="P84">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -4853,7 +4918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -4865,7 +4930,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -4877,7 +4942,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -4889,7 +4954,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -4901,7 +4966,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -4913,7 +4978,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -4925,7 +4990,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -4937,7 +5002,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -4949,7 +5014,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -4961,7 +5026,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -4973,7 +5038,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -4985,7 +5050,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -4997,7 +5062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -5009,7 +5074,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -5021,7 +5086,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5033,7 +5098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5045,7 +5110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5057,7 +5122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5069,7 +5134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -5081,7 +5146,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -5093,7 +5158,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -5105,7 +5170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -5117,7 +5182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -5129,7 +5194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -5141,7 +5206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5153,7 +5218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -5165,19 +5230,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5189,7 +5254,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5201,19 +5266,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5225,7 +5290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5237,7 +5302,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -5249,7 +5314,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -5261,7 +5326,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -5273,7 +5338,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -5285,7 +5350,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H84">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -5297,155 +5414,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H83">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5457,7 +5522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5469,7 +5534,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5481,7 +5546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5493,7 +5558,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5505,7 +5570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5517,7 +5582,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5529,7 +5594,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5541,7 +5606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5553,7 +5618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5565,7 +5630,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5577,7 +5642,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5589,7 +5654,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5601,7 +5666,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5613,7 +5678,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5625,7 +5690,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:P77">
+  <conditionalFormatting sqref="K80:P80">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5637,7 +5702,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:P80">
+  <conditionalFormatting sqref="K81:P81">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5649,7 +5714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:P81">
+  <conditionalFormatting sqref="K82:P82">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5661,7 +5726,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:P82">
+  <conditionalFormatting sqref="K83:P83">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5673,7 +5738,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:P83">
+  <conditionalFormatting sqref="K84:P84">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Trzaskała</t>
+  </si>
+  <si>
+    <t>Pawinski</t>
   </si>
 </sst>
 </file>
@@ -660,11 +663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W84"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4893,6 +4896,56 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>1790</v>
+      </c>
+      <c r="J85">
+        <v>1440</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>4.5</v>
+      </c>
+      <c r="M85">
+        <v>5</v>
+      </c>
+      <c r="N85">
+        <v>6</v>
+      </c>
+      <c r="O85">
+        <v>5.5</v>
+      </c>
+      <c r="P85">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
     <cfRule type="colorScale" priority="74">
@@ -5362,7 +5415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H84">
+  <conditionalFormatting sqref="B2:H85">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>Pawinski</t>
+  </si>
+  <si>
+    <t>Nesterowicz</t>
   </si>
 </sst>
 </file>
@@ -663,11 +666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:W86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86:P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4946,8 +4949,43 @@
         <v>6</v>
       </c>
     </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="K86">
+        <v>1.5</v>
+      </c>
+      <c r="L86">
+        <v>2.5</v>
+      </c>
+      <c r="M86">
+        <v>3.5</v>
+      </c>
+      <c r="N86">
+        <v>2.5</v>
+      </c>
+      <c r="O86">
+        <v>4</v>
+      </c>
+      <c r="P86">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -4959,7 +4997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -4971,7 +5009,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -4983,7 +5021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -4995,7 +5033,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -5007,7 +5045,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -5019,7 +5057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -5031,7 +5069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -5043,7 +5081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -5055,7 +5093,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -5067,7 +5105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5079,7 +5117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -5091,7 +5129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -5103,7 +5141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -5115,7 +5153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -5127,7 +5165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -5139,7 +5177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5151,7 +5189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5163,7 +5201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5175,7 +5213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5187,7 +5225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -5199,7 +5237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -5211,7 +5249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -5223,7 +5261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -5235,7 +5273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -5247,7 +5285,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -5259,7 +5297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5271,19 +5309,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -5295,7 +5333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5307,19 +5345,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5331,7 +5369,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5343,7 +5381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5355,7 +5393,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -5367,7 +5405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -5379,7 +5417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -5391,7 +5429,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H85">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -5403,155 +5493,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H85">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5563,7 +5601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5575,7 +5613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5587,7 +5625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5599,7 +5637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5611,7 +5649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5623,7 +5661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5635,7 +5673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5647,7 +5685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5659,7 +5697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5671,7 +5709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5683,7 +5721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5695,7 +5733,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5707,7 +5745,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5719,7 +5757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5731,7 +5769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:P77">
+  <conditionalFormatting sqref="K80:P80">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5743,7 +5781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:P80">
+  <conditionalFormatting sqref="K81:P81">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5755,7 +5793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:P81">
+  <conditionalFormatting sqref="K82:P82">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5767,7 +5805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:P82">
+  <conditionalFormatting sqref="K83:P83">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5779,7 +5817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:P83">
+  <conditionalFormatting sqref="K84:P84">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5791,7 +5829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:P84">
+  <conditionalFormatting sqref="K86:P86">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Nesterowicz</t>
+  </si>
+  <si>
+    <t>Hołoga</t>
   </si>
 </sst>
 </file>
@@ -666,11 +669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W86"/>
+  <dimension ref="A1:W87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86:P86"/>
+      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4953,6 +4956,33 @@
       <c r="A86" t="s">
         <v>100</v>
       </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>150</v>
+      </c>
+      <c r="J86">
+        <v>1080</v>
+      </c>
       <c r="K86">
         <v>1.5</v>
       </c>
@@ -4970,6 +5000,56 @@
       </c>
       <c r="P86">
         <v>6.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>1350</v>
+      </c>
+      <c r="J87">
+        <v>1400</v>
+      </c>
+      <c r="K87">
+        <v>1.5</v>
+      </c>
+      <c r="L87">
+        <v>5.5</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87">
+        <v>5.5</v>
+      </c>
+      <c r="O87">
+        <v>5</v>
+      </c>
+      <c r="P87">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5441,7 +5521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H85">
+  <conditionalFormatting sqref="B2:H87">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Hołoga</t>
+  </si>
+  <si>
+    <t>Kozielski</t>
   </si>
 </sst>
 </file>
@@ -669,11 +672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W87"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5052,8 +5055,70 @@
         <v>6</v>
       </c>
     </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>160</v>
+      </c>
+      <c r="J88">
+        <v>1000</v>
+      </c>
+      <c r="K88">
+        <v>1.5</v>
+      </c>
+      <c r="L88">
+        <v>3.5</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88">
+        <v>4.5</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -5065,7 +5130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5077,7 +5142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -5089,7 +5154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -5101,7 +5166,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -5113,7 +5178,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -5125,7 +5190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -5137,7 +5202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -5149,7 +5214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -5161,7 +5226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -5173,7 +5238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -5185,7 +5250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5197,7 +5262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -5209,7 +5274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -5221,7 +5286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -5233,7 +5298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -5245,7 +5310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -5257,7 +5322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5269,7 +5334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5281,7 +5346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5293,7 +5358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5305,7 +5370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -5317,7 +5382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -5329,7 +5394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -5341,7 +5406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -5353,7 +5418,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -5365,7 +5430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -5377,19 +5442,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -5401,7 +5466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -5413,19 +5478,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5437,7 +5502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5449,7 +5514,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5461,7 +5526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5473,7 +5538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -5485,7 +5550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -5497,7 +5562,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H88">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -5509,155 +5626,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H87">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -5669,7 +5734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5681,7 +5746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5693,7 +5758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5705,7 +5770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5717,7 +5782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5729,7 +5794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5741,7 +5806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5753,7 +5818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5765,7 +5830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5777,7 +5842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5789,7 +5854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5801,7 +5866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5813,7 +5878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5825,7 +5890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5837,7 +5902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:P77">
+  <conditionalFormatting sqref="K80:P80">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5849,7 +5914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:P80">
+  <conditionalFormatting sqref="K81:P81">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5861,7 +5926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:P81">
+  <conditionalFormatting sqref="K82:P82">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5873,7 +5938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:P82">
+  <conditionalFormatting sqref="K83:P83">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5885,7 +5950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:P83">
+  <conditionalFormatting sqref="K84:P84">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5897,7 +5962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:P84">
+  <conditionalFormatting sqref="K86:P86">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5909,7 +5974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:P86">
+  <conditionalFormatting sqref="K88:P88">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Kozielski</t>
+  </si>
+  <si>
+    <t>Łopaciński</t>
   </si>
 </sst>
 </file>
@@ -672,11 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W88"/>
+  <dimension ref="A1:W89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5105,8 +5108,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>380</v>
+      </c>
+      <c r="J89">
+        <v>1160</v>
+      </c>
+      <c r="K89">
+        <v>1.5</v>
+      </c>
+      <c r="L89">
+        <v>2.5</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>4.5</v>
+      </c>
+      <c r="O89">
+        <v>4.5</v>
+      </c>
+      <c r="P89">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -5118,7 +5183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -5130,7 +5195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5142,7 +5207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -5154,7 +5219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -5166,7 +5231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -5178,7 +5243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -5190,7 +5255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -5202,7 +5267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -5214,7 +5279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -5226,7 +5291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -5238,7 +5303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -5250,7 +5315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5262,7 +5327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -5274,7 +5339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -5286,7 +5351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -5298,7 +5363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -5310,7 +5375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -5322,7 +5387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5334,7 +5399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5346,7 +5411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5358,7 +5423,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5370,7 +5435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -5382,7 +5447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -5394,7 +5459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -5406,7 +5471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -5418,7 +5483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -5430,19 +5495,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -5454,7 +5519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -5466,19 +5531,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5490,7 +5555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5502,7 +5567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5514,7 +5579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5526,7 +5591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5538,7 +5603,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -5550,7 +5615,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H89">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -5562,155 +5679,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H88">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5722,7 +5787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -5734,7 +5799,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5746,7 +5811,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5758,7 +5823,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5770,7 +5835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5782,7 +5847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5794,7 +5859,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5806,7 +5871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5818,7 +5883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5830,7 +5895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5842,7 +5907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5854,7 +5919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5866,7 +5931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5878,7 +5943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5890,7 +5955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:P77">
+  <conditionalFormatting sqref="K80:P80">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5902,7 +5967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:P80">
+  <conditionalFormatting sqref="K81:P81">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5914,7 +5979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:P81">
+  <conditionalFormatting sqref="K82:P82">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5926,7 +5991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:P82">
+  <conditionalFormatting sqref="K83:P83">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5938,7 +6003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:P83">
+  <conditionalFormatting sqref="K84:P84">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5950,7 +6015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:P84">
+  <conditionalFormatting sqref="K86:P86">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5962,7 +6027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:P86">
+  <conditionalFormatting sqref="K88:P88">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5974,7 +6039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:P88">
+  <conditionalFormatting sqref="K89:P89">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Łopaciński</t>
+  </si>
+  <si>
+    <t>Burcon</t>
   </si>
 </sst>
 </file>
@@ -675,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W89"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
@@ -5158,6 +5161,56 @@
         <v>5</v>
       </c>
     </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>70</v>
+      </c>
+      <c r="J90">
+        <v>1000</v>
+      </c>
+      <c r="K90">
+        <v>1.5</v>
+      </c>
+      <c r="L90">
+        <v>2.5</v>
+      </c>
+      <c r="M90">
+        <v>2.5</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>3.5</v>
+      </c>
+      <c r="P90">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
     <cfRule type="colorScale" priority="77">
@@ -5627,7 +5680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H89">
+  <conditionalFormatting sqref="B2:H90">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Burcon</t>
+  </si>
+  <si>
+    <t>Mechlinski</t>
   </si>
 </sst>
 </file>
@@ -678,11 +681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W90"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
+      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5211,8 +5214,70 @@
         <v>5</v>
       </c>
     </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>720</v>
+      </c>
+      <c r="J91">
+        <v>1360</v>
+      </c>
+      <c r="K91">
+        <v>1.5</v>
+      </c>
+      <c r="L91">
+        <v>3.5</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>6</v>
+      </c>
+      <c r="O91">
+        <v>5</v>
+      </c>
+      <c r="P91">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -5224,7 +5289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -5236,7 +5301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -5248,7 +5313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5260,7 +5325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -5272,7 +5337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -5284,7 +5349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -5296,7 +5361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -5308,7 +5373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -5320,7 +5385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -5332,7 +5397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -5344,7 +5409,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -5356,7 +5421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -5368,7 +5433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5380,7 +5445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -5392,7 +5457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -5404,7 +5469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -5416,7 +5481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -5428,7 +5493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -5440,7 +5505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5452,7 +5517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5464,7 +5529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5476,7 +5541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5488,7 +5553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -5500,7 +5565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -5512,7 +5577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -5524,7 +5589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -5536,19 +5601,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5560,7 +5625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -5572,19 +5637,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5596,7 +5661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5608,7 +5673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5620,7 +5685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5632,7 +5697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5644,7 +5709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5656,7 +5721,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H91">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -5668,155 +5785,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H90">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5828,7 +5893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5840,7 +5905,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -5852,7 +5917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5864,7 +5929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5876,7 +5941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5888,7 +5953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5900,7 +5965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5912,7 +5977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5924,7 +5989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5936,7 +6001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5948,7 +6013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5960,7 +6025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5972,7 +6037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5984,7 +6049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5996,7 +6061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:P77">
+  <conditionalFormatting sqref="K80:P80">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6008,7 +6073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:P80">
+  <conditionalFormatting sqref="K81:P81">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6020,7 +6085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:P81">
+  <conditionalFormatting sqref="K82:P82">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6032,7 +6097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:P82">
+  <conditionalFormatting sqref="K83:P83">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6044,7 +6109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:P83">
+  <conditionalFormatting sqref="K84:P84">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6056,7 +6121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:P84">
+  <conditionalFormatting sqref="K86:P86">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6068,7 +6133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:P86">
+  <conditionalFormatting sqref="K88:P88">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6080,7 +6145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:P88">
+  <conditionalFormatting sqref="K89:P89">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6092,7 +6157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K89:P89">
+  <conditionalFormatting sqref="K91:P91">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Mechlinski</t>
+  </si>
+  <si>
+    <t>Sufleta</t>
   </si>
 </sst>
 </file>
@@ -681,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
+      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5264,6 +5267,56 @@
         <v>5</v>
       </c>
     </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>70</v>
+      </c>
+      <c r="J92">
+        <v>1000</v>
+      </c>
+      <c r="K92">
+        <v>0.5</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2.5</v>
+      </c>
+      <c r="N92">
+        <v>3.5</v>
+      </c>
+      <c r="O92">
+        <v>3.5</v>
+      </c>
+      <c r="P92">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
     <cfRule type="colorScale" priority="78">
@@ -5733,7 +5786,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H91">
+  <conditionalFormatting sqref="B2:H92">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Sufleta</t>
+  </si>
+  <si>
+    <t>Topinski</t>
   </si>
 </sst>
 </file>
@@ -684,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomLeft" activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5317,8 +5320,70 @@
         <v>4</v>
       </c>
     </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>220</v>
+      </c>
+      <c r="J93">
+        <v>1080</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>4.5</v>
+      </c>
+      <c r="O93">
+        <v>4.5</v>
+      </c>
+      <c r="P93">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -5330,7 +5395,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -5342,7 +5407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -5354,7 +5419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -5366,7 +5431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5378,7 +5443,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -5390,7 +5455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -5402,7 +5467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -5414,7 +5479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -5426,7 +5491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -5438,7 +5503,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -5450,7 +5515,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -5462,7 +5527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -5474,7 +5539,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -5486,7 +5551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5498,7 +5563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -5510,7 +5575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -5522,7 +5587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -5534,7 +5599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -5546,7 +5611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -5558,7 +5623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5570,7 +5635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5582,7 +5647,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5594,7 +5659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5606,7 +5671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -5618,7 +5683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -5630,7 +5695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -5642,19 +5707,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -5666,7 +5731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5678,19 +5743,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5702,7 +5767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5714,7 +5779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5726,7 +5791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5738,7 +5803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5750,7 +5815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5762,7 +5827,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H93">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5774,155 +5891,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H92">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5934,7 +5999,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5946,7 +6011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5958,7 +6023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -5970,7 +6035,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5982,7 +6047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5994,7 +6059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6006,7 +6071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -6018,7 +6083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -6030,7 +6095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -6042,7 +6107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6054,7 +6119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6066,7 +6131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6078,7 +6143,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6090,7 +6155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6102,7 +6167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:P77">
+  <conditionalFormatting sqref="K80:P80">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6114,7 +6179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:P80">
+  <conditionalFormatting sqref="K81:P81">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6126,7 +6191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:P81">
+  <conditionalFormatting sqref="K82:P82">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6138,7 +6203,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:P82">
+  <conditionalFormatting sqref="K83:P83">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6150,7 +6215,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:P83">
+  <conditionalFormatting sqref="K84:P84">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6162,7 +6227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:P84">
+  <conditionalFormatting sqref="K86:P86">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6174,7 +6239,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:P86">
+  <conditionalFormatting sqref="K88:P88">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6186,7 +6251,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:P88">
+  <conditionalFormatting sqref="K89:P89">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6198,7 +6263,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K89:P89">
+  <conditionalFormatting sqref="K91:P91">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6210,7 +6275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K91:P91">
+  <conditionalFormatting sqref="K2:P93">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>Topinski</t>
+  </si>
+  <si>
+    <t>Giedrojc</t>
   </si>
 </sst>
 </file>
@@ -687,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q89" sqref="Q89"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I94" sqref="I94:J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5370,8 +5373,70 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>130</v>
+      </c>
+      <c r="J94">
+        <v>1000</v>
+      </c>
+      <c r="K94">
+        <v>1.5</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>3.5</v>
+      </c>
+      <c r="N94">
+        <v>3.5</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -5383,7 +5448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -5395,7 +5460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -5407,7 +5472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -5419,7 +5484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -5431,7 +5496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5443,7 +5508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -5455,7 +5520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -5467,7 +5532,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -5479,7 +5544,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -5491,7 +5556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -5503,7 +5568,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -5515,7 +5580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -5527,7 +5592,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -5539,7 +5604,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -5551,7 +5616,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5563,7 +5628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -5575,7 +5640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -5587,7 +5652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -5599,7 +5664,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -5611,7 +5676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -5623,7 +5688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5635,7 +5700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5647,7 +5712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5659,7 +5724,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5671,7 +5736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -5683,7 +5748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -5695,19 +5760,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -5719,7 +5784,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -5731,19 +5796,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -5755,7 +5820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5767,7 +5832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5779,7 +5844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5791,7 +5856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5803,7 +5868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5815,7 +5880,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H94">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5827,155 +5944,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H93">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -5987,7 +6052,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5999,7 +6064,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -6011,7 +6076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -6023,7 +6088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -6035,7 +6100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -6047,7 +6112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -6059,7 +6124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6071,7 +6136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -6083,7 +6148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -6095,7 +6160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -6107,7 +6172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6119,7 +6184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6131,7 +6196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6143,7 +6208,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6155,7 +6220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:P77">
+  <conditionalFormatting sqref="K80:P80">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6167,7 +6232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:P80">
+  <conditionalFormatting sqref="K81:P81">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6179,7 +6244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:P81">
+  <conditionalFormatting sqref="K82:P82">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6191,7 +6256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:P82">
+  <conditionalFormatting sqref="K83:P83">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6203,7 +6268,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:P83">
+  <conditionalFormatting sqref="K84:P84">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6215,7 +6280,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:P84">
+  <conditionalFormatting sqref="K86:P86">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6227,7 +6292,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:P86">
+  <conditionalFormatting sqref="K88:P88">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6239,7 +6304,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:P88">
+  <conditionalFormatting sqref="K89:P89">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6251,7 +6316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K89:P89">
+  <conditionalFormatting sqref="K91:P91">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6263,7 +6328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K91:P91">
+  <conditionalFormatting sqref="K2:P93">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6275,7 +6340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P93">
+  <conditionalFormatting sqref="K94:P94">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/data/SkilePromowanychJuniorow1.xlsx
+++ b/src/data/SkilePromowanychJuniorow1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Zawodnik</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Giedrojc</t>
+  </si>
+  <si>
+    <t>Talaga</t>
   </si>
 </sst>
 </file>
@@ -690,11 +693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94:J94"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5423,8 +5426,70 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>80</v>
+      </c>
+      <c r="J95">
+        <v>1000</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>2.5</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>4.5</v>
+      </c>
+      <c r="O95">
+        <v>4.5</v>
+      </c>
+      <c r="P95">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K5:P5">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:P6">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -5436,7 +5501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -5448,7 +5513,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:P7">
+  <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -5460,7 +5525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:P8">
+  <conditionalFormatting sqref="K9:P9">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -5472,7 +5537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:P9">
+  <conditionalFormatting sqref="K10:P10">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -5484,7 +5549,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:P10">
+  <conditionalFormatting sqref="K11:P11">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -5496,7 +5561,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:P11">
+  <conditionalFormatting sqref="K12:P12">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5508,7 +5573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:P12">
+  <conditionalFormatting sqref="K13:P13">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -5520,7 +5585,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P13">
+  <conditionalFormatting sqref="K15:P15">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -5532,7 +5597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:P15">
+  <conditionalFormatting sqref="K16:P16">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -5544,7 +5609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:P16">
+  <conditionalFormatting sqref="K17:P17">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -5556,7 +5621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:P17">
+  <conditionalFormatting sqref="K18:P18">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -5568,7 +5633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:P18">
+  <conditionalFormatting sqref="K19:P19">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -5580,7 +5645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:P19">
+  <conditionalFormatting sqref="K20:P20">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -5592,7 +5657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:P20">
+  <conditionalFormatting sqref="K21:P21">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -5604,7 +5669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:P21">
+  <conditionalFormatting sqref="K22:P22">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -5616,7 +5681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:P22">
+  <conditionalFormatting sqref="K25:P25">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5628,7 +5693,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:P25">
+  <conditionalFormatting sqref="K26:P26">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -5640,7 +5705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:P26">
+  <conditionalFormatting sqref="K28:P28">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -5652,7 +5717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:P28">
+  <conditionalFormatting sqref="K29:P29">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -5664,7 +5729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:P29">
+  <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -5676,7 +5741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:P30">
+  <conditionalFormatting sqref="K36:P36">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -5688,7 +5753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:P36">
+  <conditionalFormatting sqref="K38:P38">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5700,7 +5765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
+  <conditionalFormatting sqref="K39:P39">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5712,7 +5777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:P39">
+  <conditionalFormatting sqref="K40:P40">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5724,7 +5789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:P40">
+  <conditionalFormatting sqref="K41:P41">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5736,7 +5801,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:P41">
+  <conditionalFormatting sqref="K42:P42">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -5748,19 +5813,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:P42">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:P44">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:P45">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -5772,7 +5837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:P45">
+  <conditionalFormatting sqref="K46:P46">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -5784,19 +5849,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:P46">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:P47">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:P48">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -5808,7 +5873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:P48">
+  <conditionalFormatting sqref="K49:P49">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -5820,7 +5885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:P49">
+  <conditionalFormatting sqref="K50:P50">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5832,7 +5897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:P50">
+  <conditionalFormatting sqref="K51:P51">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5844,7 +5909,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:P51">
+  <conditionalFormatting sqref="K52:P52">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5856,7 +5921,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:P52">
+  <conditionalFormatting sqref="K53:P53">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5868,7 +5933,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:P53">
+  <conditionalFormatting sqref="K2:P43">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H95">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5880,155 +5997,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P43">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H94">
+  <conditionalFormatting sqref="K2:P53">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:P54">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P54">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:P55">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P56">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:P57">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P57">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:P58">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P53">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P54">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P54">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:P55">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P56">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:P57">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P57">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:P58">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:P59">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -6040,7 +6105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:P59">
+  <conditionalFormatting sqref="K61:P61">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -6052,7 +6117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:P61">
+  <conditionalFormatting sqref="K2:P61">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -6064,7 +6129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P61">
+  <conditionalFormatting sqref="K63:P63">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -6076,7 +6141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:P63">
+  <conditionalFormatting sqref="K2:P63">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -6088,7 +6153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P63">
+  <conditionalFormatting sqref="K64:P64">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -6100,7 +6165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:P64">
+  <conditionalFormatting sqref="K65:P65">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -6112,7 +6177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P65">
+  <conditionalFormatting sqref="K68:P68">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -6124,7 +6189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P68">
+  <conditionalFormatting sqref="K69:P69">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6136,7 +6201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:P69">
+  <conditionalFormatting sqref="K70:P70">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -6148,7 +6213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:P70">
+  <conditionalFormatting sqref="K73:P73">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -6160,7 +6225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:P73">
+  <conditionalFormatting sqref="K74:P74">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -6172,7 +6237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P74">
+  <conditionalFormatting sqref="K75:P75">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6184,7 +6249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:P75">
+  <conditionalFormatting sqref="K76:P76">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6196,7 +6261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:P76">
+  <conditionalFormatting sqref="K77:P77">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6208,7 +6273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:P77">
+  <conditionalFormatting sqref="K80:P80">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6220,7 +6285,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:P80">
+  <conditionalFormatting sqref="K81:P81">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6232,7 +6297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:P81">
+  <conditionalFormatting sqref="K82:P82">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6244,7 +6309,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:P82">
+  <conditionalFormatting sqref="K83:P83">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6256,7 +6321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:P83">
+  <conditionalFormatting sqref="K84:P84">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6268,7 +6333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:P84">
+  <conditionalFormatting sqref="K86:P86">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6280,7 +6345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:P86">
+  <conditionalFormatting sqref="K88:P88">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6292,7 +6357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:P88">
+  <conditionalFormatting sqref="K89:P89">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6304,7 +6369,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K89:P89">
+  <conditionalFormatting sqref="K91:P91">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6316,7 +6381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K91:P91">
+  <conditionalFormatting sqref="K2:P93">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6328,7 +6393,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P93">
+  <conditionalFormatting sqref="K94:P94">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6340,7 +6405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K94:P94">
+  <conditionalFormatting sqref="K95:P95">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
